--- a/Code/Results/Cases/Case_1_174/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_174/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.253976838828212</v>
+        <v>7.774617366771236</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1.605627763488593</v>
+        <v>2.807301892357337</v>
       </c>
       <c r="E2">
-        <v>5.572064415249883</v>
+        <v>10.90867421731391</v>
       </c>
       <c r="F2">
-        <v>26.75224803864324</v>
+        <v>21.55254841683206</v>
       </c>
       <c r="G2">
-        <v>2.003396788643907</v>
+        <v>3.570449054546622</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>26.6984726488226</v>
+        <v>17.20267214287284</v>
       </c>
       <c r="N2">
-        <v>15.70774941020682</v>
+        <v>17.48603232932477</v>
       </c>
       <c r="O2">
-        <v>20.61675103693782</v>
+        <v>18.50298882304369</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.897933691583382</v>
+        <v>7.700555740213737</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>1.565260157766684</v>
+        <v>2.814435072826421</v>
       </c>
       <c r="E3">
-        <v>5.831648089028817</v>
+        <v>11.04947273688814</v>
       </c>
       <c r="F3">
-        <v>24.92644035557661</v>
+        <v>21.09981515155394</v>
       </c>
       <c r="G3">
-        <v>2.01136112568193</v>
+        <v>3.57342552290726</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>24.96579174148416</v>
+        <v>16.51876177899656</v>
       </c>
       <c r="N3">
-        <v>15.36954911098137</v>
+        <v>17.41378050168197</v>
       </c>
       <c r="O3">
-        <v>19.2632693513536</v>
+        <v>18.23520480292951</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.67257182865047</v>
+        <v>7.656515638299742</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>1.562849651645585</v>
+        <v>2.818976749423928</v>
       </c>
       <c r="E4">
-        <v>6.011860964192249</v>
+        <v>11.14083218709072</v>
       </c>
       <c r="F4">
-        <v>23.82777890572977</v>
+        <v>20.82488463417977</v>
       </c>
       <c r="G4">
-        <v>2.016380815071819</v>
+        <v>3.5753496926186</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>23.84368668792922</v>
+        <v>16.08583824438596</v>
       </c>
       <c r="N4">
-        <v>15.16250987884148</v>
+        <v>17.37178291655026</v>
       </c>
       <c r="O4">
-        <v>18.47267720004671</v>
+        <v>18.07535155232397</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.57916857495741</v>
+        <v>7.63895006430598</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1.570782844278942</v>
+        <v>2.820868485459677</v>
       </c>
       <c r="E5">
-        <v>6.089872189903641</v>
+        <v>11.17929201775843</v>
       </c>
       <c r="F5">
-        <v>23.37106769449413</v>
+        <v>20.71379586405109</v>
       </c>
       <c r="G5">
-        <v>2.018460499443429</v>
+        <v>3.576158186909787</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>23.37171090316786</v>
+        <v>15.90640376780496</v>
       </c>
       <c r="N5">
-        <v>15.07840174948427</v>
+        <v>17.35527741066324</v>
       </c>
       <c r="O5">
-        <v>18.14542849777551</v>
+        <v>18.01144519144099</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.563568653947731</v>
+        <v>7.636056919364438</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>1.572101322098588</v>
+        <v>2.821185088710054</v>
       </c>
       <c r="E6">
-        <v>6.103084824942142</v>
+        <v>11.18575242338049</v>
       </c>
       <c r="F6">
-        <v>23.29469657291219</v>
+        <v>20.69541219659289</v>
       </c>
       <c r="G6">
-        <v>2.018807933412404</v>
+        <v>3.576293911793079</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>23.29244982620561</v>
+        <v>15.87643474762161</v>
       </c>
       <c r="N6">
-        <v>15.06445466823606</v>
+        <v>17.35257385668458</v>
       </c>
       <c r="O6">
-        <v>18.09079142372308</v>
+        <v>18.00091066463538</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.671318314250657</v>
+        <v>7.656277173053823</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>1.562956567561682</v>
+        <v>2.819002095842181</v>
       </c>
       <c r="E7">
-        <v>6.012895330191658</v>
+        <v>11.1413458944926</v>
       </c>
       <c r="F7">
-        <v>23.8216555846179</v>
+        <v>20.82338237561782</v>
       </c>
       <c r="G7">
-        <v>2.016408722303991</v>
+        <v>3.575360497428602</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>23.83738108396494</v>
+        <v>16.08343017663995</v>
       </c>
       <c r="N7">
-        <v>15.16137436270089</v>
+        <v>17.37155783416786</v>
       </c>
       <c r="O7">
-        <v>18.46828397191121</v>
+        <v>18.07448457545376</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.132686402708916</v>
+        <v>7.748795800816517</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>1.59168822173453</v>
+        <v>2.80972797308185</v>
       </c>
       <c r="E8">
-        <v>5.656809698276109</v>
+        <v>10.95620014965819</v>
       </c>
       <c r="F8">
-        <v>26.10966171707455</v>
+        <v>21.395921077485</v>
       </c>
       <c r="G8">
-        <v>2.006116965346328</v>
+        <v>3.571455342767219</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>26.113083505378</v>
+        <v>16.96970147104308</v>
       </c>
       <c r="N8">
-        <v>15.59107290717033</v>
+        <v>17.46063758714847</v>
       </c>
       <c r="O8">
-        <v>20.11167491029524</v>
+        <v>18.40976177986165</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.979110608589888</v>
+        <v>7.940670946557532</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1.693300663174077</v>
+        <v>2.79281392146622</v>
       </c>
       <c r="E9">
-        <v>5.160136524463032</v>
+        <v>10.63227967189016</v>
       </c>
       <c r="F9">
-        <v>30.55380561272761</v>
+        <v>22.53503057811182</v>
       </c>
       <c r="G9">
-        <v>1.986887156022939</v>
+        <v>3.564559903170369</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>30.11783837799533</v>
+        <v>18.5948118151233</v>
       </c>
       <c r="N9">
-        <v>16.43411423012469</v>
+        <v>17.65344821424603</v>
       </c>
       <c r="O9">
-        <v>23.60032899534476</v>
+        <v>19.09955375347315</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.596858232378539</v>
+        <v>8.086728820589148</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1.769431817804355</v>
+        <v>2.781146184999824</v>
       </c>
       <c r="E10">
-        <v>4.97750745896991</v>
+        <v>10.41846437706364</v>
       </c>
       <c r="F10">
-        <v>33.5791155139618</v>
+        <v>23.37171630732966</v>
       </c>
       <c r="G10">
-        <v>1.973223972373359</v>
+        <v>3.559953150715788</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>32.78829306765626</v>
+        <v>19.70884273577429</v>
       </c>
       <c r="N10">
-        <v>17.04808894168985</v>
+        <v>17.80526283336567</v>
       </c>
       <c r="O10">
-        <v>25.97132292260164</v>
+        <v>19.62069452956872</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.902271997206039</v>
+        <v>8.154001092441652</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1.804623222542706</v>
+        <v>2.77599949369911</v>
       </c>
       <c r="E11">
-        <v>4.948771638373961</v>
+        <v>10.32651768384583</v>
       </c>
       <c r="F11">
-        <v>34.90619576216078</v>
+        <v>23.75026479306381</v>
       </c>
       <c r="G11">
-        <v>1.967080373191672</v>
+        <v>3.55795597539989</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>33.94612535668615</v>
+        <v>20.19641923412876</v>
       </c>
       <c r="N11">
-        <v>17.32515135486203</v>
+        <v>17.87633291535385</v>
       </c>
       <c r="O11">
-        <v>27.01092992078941</v>
+        <v>19.85975282105608</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.015448744250072</v>
+        <v>8.179571329865439</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1.818053864282287</v>
+        <v>2.774073461159323</v>
       </c>
       <c r="E12">
-        <v>4.946931064827783</v>
+        <v>10.29247201273258</v>
       </c>
       <c r="F12">
-        <v>35.40194992986495</v>
+        <v>23.89315589817426</v>
       </c>
       <c r="G12">
-        <v>1.964761595680985</v>
+        <v>3.557213764828572</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>34.37656538683382</v>
+        <v>20.37816307346961</v>
       </c>
       <c r="N12">
-        <v>17.42966515826699</v>
+        <v>17.90351670524025</v>
       </c>
       <c r="O12">
-        <v>27.39925822409712</v>
+        <v>19.95047042970693</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.991183870803624</v>
+        <v>8.174060440692747</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>1.815156262768607</v>
+        <v>2.774487251793143</v>
       </c>
       <c r="E13">
-        <v>4.94690699773493</v>
+        <v>10.29976986876206</v>
       </c>
       <c r="F13">
-        <v>35.29547701414312</v>
+        <v>23.86240451930424</v>
       </c>
       <c r="G13">
-        <v>1.965260690335008</v>
+        <v>3.557372988404348</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>34.28421526551372</v>
+        <v>20.33915172224139</v>
       </c>
       <c r="N13">
-        <v>17.40717542156752</v>
+        <v>17.89765041917062</v>
       </c>
       <c r="O13">
-        <v>27.31585821954465</v>
+        <v>19.93092573850996</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.911632614185946</v>
+        <v>8.156102988388842</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1.805725923967518</v>
+        <v>2.775840580142205</v>
       </c>
       <c r="E14">
-        <v>4.948432363340006</v>
+        <v>10.32370119673243</v>
       </c>
       <c r="F14">
-        <v>34.94711588718825</v>
+        <v>23.76203057387517</v>
       </c>
       <c r="G14">
-        <v>1.96688946854831</v>
+        <v>3.557894631644944</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>33.98169721473332</v>
+        <v>20.21143002158113</v>
       </c>
       <c r="N14">
-        <v>17.33375830236659</v>
+        <v>17.87856401195317</v>
       </c>
       <c r="O14">
-        <v>27.04298353051115</v>
+        <v>19.86721291092667</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.862583348786975</v>
+        <v>8.145115292701211</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>1.799963953265234</v>
+        <v>2.776672508818987</v>
       </c>
       <c r="E15">
-        <v>4.950578811219047</v>
+        <v>10.33846067336583</v>
       </c>
       <c r="F15">
-        <v>34.73286062359783</v>
+        <v>23.7004845229105</v>
       </c>
       <c r="G15">
-        <v>1.967888057100994</v>
+        <v>3.558215983927008</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>33.79535950525936</v>
+        <v>20.13281679586349</v>
       </c>
       <c r="N15">
-        <v>17.28873331585783</v>
+        <v>17.86690780764875</v>
       </c>
       <c r="O15">
-        <v>26.87515154394242</v>
+        <v>19.82820912296607</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.57655079311164</v>
+        <v>8.08234709381907</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>1.767145185730852</v>
+        <v>2.781485752362093</v>
       </c>
       <c r="E16">
-        <v>4.980585697369172</v>
+        <v>10.42458098345059</v>
       </c>
       <c r="F16">
-        <v>33.49142204973805</v>
+        <v>23.34692183919134</v>
       </c>
       <c r="G16">
-        <v>1.973626695855002</v>
+        <v>3.560085645058084</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>32.71149500253784</v>
+        <v>19.67658056617493</v>
       </c>
       <c r="N16">
-        <v>17.02993005980299</v>
+        <v>17.8006571472379</v>
       </c>
       <c r="O16">
-        <v>25.9026190865897</v>
+        <v>19.60510339729072</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.396641366084463</v>
+        <v>8.044036517820548</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>1.747170924353644</v>
+        <v>2.784479586079914</v>
       </c>
       <c r="E17">
-        <v>5.013807601151626</v>
+        <v>10.47878058820306</v>
       </c>
       <c r="F17">
-        <v>32.71744025096825</v>
+        <v>23.12937710077227</v>
       </c>
       <c r="G17">
-        <v>1.977163762883138</v>
+        <v>3.561257780964176</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>32.03211287825686</v>
+        <v>19.39167810747271</v>
       </c>
       <c r="N17">
-        <v>16.87052887911074</v>
+        <v>17.76051648344848</v>
       </c>
       <c r="O17">
-        <v>25.29619240895479</v>
+        <v>19.46867672847427</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.308257433048929</v>
+        <v>8.022080804529349</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>1.735733197994175</v>
+        <v>2.786216730651957</v>
       </c>
       <c r="E18">
-        <v>5.037958480466619</v>
+        <v>10.51045491533344</v>
       </c>
       <c r="F18">
-        <v>32.26762050058865</v>
+        <v>23.00406587107371</v>
       </c>
       <c r="G18">
-        <v>1.979205128740989</v>
+        <v>3.561941234882622</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>31.63597532436719</v>
+        <v>19.22600886092406</v>
       </c>
       <c r="N18">
-        <v>16.77863935321079</v>
+        <v>17.7376188039983</v>
       </c>
       <c r="O18">
-        <v>24.9437065716086</v>
+        <v>19.39040045894099</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.278834349863217</v>
+        <v>8.014661356521581</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1.731868663371653</v>
+        <v>2.786807511077783</v>
       </c>
       <c r="E19">
-        <v>5.046963006717893</v>
+        <v>10.52126497510187</v>
       </c>
       <c r="F19">
-        <v>32.11451337376364</v>
+        <v>22.96161085399122</v>
       </c>
       <c r="G19">
-        <v>1.979897568310398</v>
+        <v>3.562174235675403</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>31.50092150833373</v>
+        <v>19.1696110566508</v>
       </c>
       <c r="N19">
-        <v>16.74749434339423</v>
+        <v>17.72989924114001</v>
       </c>
       <c r="O19">
-        <v>24.82372071878905</v>
+        <v>19.36393347629684</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.415962450023484</v>
+        <v>8.048106686015561</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1.749291785415868</v>
+        <v>2.784159319101611</v>
       </c>
       <c r="E20">
-        <v>5.009740028722779</v>
+        <v>10.47295913083346</v>
       </c>
       <c r="F20">
-        <v>32.80031084493223</v>
+        <v>23.15255547169192</v>
       </c>
       <c r="G20">
-        <v>1.97678653632322</v>
+        <v>3.561132046041612</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>32.10498927382018</v>
+        <v>19.42219384406066</v>
       </c>
       <c r="N20">
-        <v>16.88751936302091</v>
+        <v>17.76476997169418</v>
       </c>
       <c r="O20">
-        <v>25.36112722581283</v>
+        <v>19.48318032384694</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.935065770197797</v>
+        <v>8.161375118110781</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>1.80849279646352</v>
+        <v>2.775442455042681</v>
       </c>
       <c r="E21">
-        <v>4.947729698379783</v>
+        <v>10.31665095450769</v>
       </c>
       <c r="F21">
-        <v>35.04961956461854</v>
+        <v>23.79152646832162</v>
       </c>
       <c r="G21">
-        <v>1.966410871420804</v>
+        <v>3.557741031003212</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>34.07076977338821</v>
+        <v>20.24902437753957</v>
       </c>
       <c r="N21">
-        <v>17.35533426284552</v>
+        <v>17.88416293827346</v>
       </c>
       <c r="O21">
-        <v>27.12327639186369</v>
+        <v>19.88592246060505</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.25990468348429</v>
+        <v>8.235949498577815</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>1.847807047755039</v>
+        <v>2.769878891899912</v>
       </c>
       <c r="E22">
-        <v>4.960369632252498</v>
+        <v>10.21900154218994</v>
       </c>
       <c r="F22">
-        <v>36.48030588516507</v>
+        <v>24.20639956028034</v>
       </c>
       <c r="G22">
-        <v>1.959673026094538</v>
+        <v>3.555606816823433</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>35.30896034482093</v>
+        <v>20.77250868841132</v>
       </c>
       <c r="N22">
-        <v>17.65869247168666</v>
+        <v>17.96376482283565</v>
       </c>
       <c r="O22">
-        <v>28.24391160192446</v>
+        <v>20.1502112648158</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.087843763031632</v>
+        <v>8.196105469824898</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>1.82675821032557</v>
+        <v>2.772836143948089</v>
       </c>
       <c r="E23">
-        <v>4.948386242129827</v>
+        <v>10.27070377259156</v>
       </c>
       <c r="F23">
-        <v>35.72021746550256</v>
+        <v>23.98527442445974</v>
       </c>
       <c r="G23">
-        <v>1.963266142142233</v>
+        <v>3.556738410130897</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>34.65230709874156</v>
+        <v>20.4946994765034</v>
       </c>
       <c r="N23">
-        <v>17.4970279243457</v>
+        <v>17.9211419411605</v>
       </c>
       <c r="O23">
-        <v>27.64855364931199</v>
+        <v>20.00908778324155</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.407232639640497</v>
+        <v>8.04626634455273</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>1.748332803411054</v>
+        <v>2.784304062085857</v>
       </c>
       <c r="E24">
-        <v>5.011563340162716</v>
+        <v>10.47558941041408</v>
       </c>
       <c r="F24">
-        <v>32.76286016866864</v>
+        <v>23.14207727121254</v>
       </c>
       <c r="G24">
-        <v>1.976957055774944</v>
+        <v>3.561188860960972</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>32.07205916154889</v>
+        <v>19.40840350980891</v>
       </c>
       <c r="N24">
-        <v>16.87983873036113</v>
+        <v>17.76284640850066</v>
       </c>
       <c r="O24">
-        <v>25.33178218429972</v>
+        <v>19.47662275133499</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.756966171720402</v>
+        <v>7.887776272871257</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>1.665622016070525</v>
+        <v>2.797255131504068</v>
       </c>
       <c r="E25">
-        <v>5.267261746475729</v>
+        <v>10.71568813759481</v>
       </c>
       <c r="F25">
-        <v>29.39448037275948</v>
+        <v>22.2261940628728</v>
       </c>
       <c r="G25">
-        <v>1.991998669118638</v>
+        <v>3.566344240549889</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>29.08278943408127</v>
+        <v>18.16850626290467</v>
       </c>
       <c r="N25">
-        <v>16.20661139798187</v>
+        <v>17.59943762190663</v>
       </c>
       <c r="O25">
-        <v>22.69110956977057</v>
+        <v>18.91003769845784</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_174/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_174/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.774617366771236</v>
+        <v>7.253976838828308</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2.807301892357337</v>
+        <v>1.605627763488394</v>
       </c>
       <c r="E2">
-        <v>10.90867421731391</v>
+        <v>5.572064415249786</v>
       </c>
       <c r="F2">
-        <v>21.55254841683206</v>
+        <v>26.75224803864324</v>
       </c>
       <c r="G2">
-        <v>3.570449054546622</v>
+        <v>2.003396788643775</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>17.20267214287284</v>
+        <v>26.69847264882261</v>
       </c>
       <c r="N2">
-        <v>17.48603232932477</v>
+        <v>15.70774941020682</v>
       </c>
       <c r="O2">
-        <v>18.50298882304369</v>
+        <v>20.61675103693782</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.700555740213737</v>
+        <v>6.897933691583395</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2.814435072826421</v>
+        <v>1.565260157766815</v>
       </c>
       <c r="E3">
-        <v>11.04947273688814</v>
+        <v>5.831648089028876</v>
       </c>
       <c r="F3">
-        <v>21.09981515155394</v>
+        <v>24.92644035557663</v>
       </c>
       <c r="G3">
-        <v>3.57342552290726</v>
+        <v>2.011361125681931</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>16.51876177899656</v>
+        <v>24.96579174148416</v>
       </c>
       <c r="N3">
-        <v>17.41378050168197</v>
+        <v>15.36954911098139</v>
       </c>
       <c r="O3">
-        <v>18.23520480292951</v>
+        <v>19.26326935135362</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.656515638299742</v>
+        <v>6.672571828650533</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.818976749423928</v>
+        <v>1.562849651645644</v>
       </c>
       <c r="E4">
-        <v>11.14083218709072</v>
+        <v>6.011860964192322</v>
       </c>
       <c r="F4">
-        <v>20.82488463417977</v>
+        <v>23.82777890572974</v>
       </c>
       <c r="G4">
-        <v>3.5753496926186</v>
+        <v>2.016380815071552</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16.08583824438596</v>
+        <v>23.84368668792927</v>
       </c>
       <c r="N4">
-        <v>17.37178291655026</v>
+        <v>15.16250987884145</v>
       </c>
       <c r="O4">
-        <v>18.07535155232397</v>
+        <v>18.47267720004667</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.63895006430598</v>
+        <v>6.579168574957435</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.820868485459677</v>
+        <v>1.570782844279008</v>
       </c>
       <c r="E5">
-        <v>11.17929201775843</v>
+        <v>6.089872189903645</v>
       </c>
       <c r="F5">
-        <v>20.71379586405109</v>
+        <v>23.37106769449415</v>
       </c>
       <c r="G5">
-        <v>3.576158186909787</v>
+        <v>2.018460499443563</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.90640376780496</v>
+        <v>23.37171090316785</v>
       </c>
       <c r="N5">
-        <v>17.35527741066324</v>
+        <v>15.07840174948427</v>
       </c>
       <c r="O5">
-        <v>18.01144519144099</v>
+        <v>18.14542849777553</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.636056919364438</v>
+        <v>6.563568653947767</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.821185088710054</v>
+        <v>1.572101322098649</v>
       </c>
       <c r="E6">
-        <v>11.18575242338049</v>
+        <v>6.103084824942078</v>
       </c>
       <c r="F6">
-        <v>20.69541219659289</v>
+        <v>23.2946965729122</v>
       </c>
       <c r="G6">
-        <v>3.576293911793079</v>
+        <v>2.018807933412269</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.87643474762161</v>
+        <v>23.29244982620558</v>
       </c>
       <c r="N6">
-        <v>17.35257385668458</v>
+        <v>15.06445466823604</v>
       </c>
       <c r="O6">
-        <v>18.00091066463538</v>
+        <v>18.0907914237231</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.656277173053823</v>
+        <v>6.671318314250603</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.819002095842181</v>
+        <v>1.562956567561815</v>
       </c>
       <c r="E7">
-        <v>11.1413458944926</v>
+        <v>6.012895330191771</v>
       </c>
       <c r="F7">
-        <v>20.82338237561782</v>
+        <v>23.82165558461788</v>
       </c>
       <c r="G7">
-        <v>3.575360497428602</v>
+        <v>2.016408722303857</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>16.08343017663995</v>
+        <v>23.83738108396492</v>
       </c>
       <c r="N7">
-        <v>17.37155783416786</v>
+        <v>15.16137436270087</v>
       </c>
       <c r="O7">
-        <v>18.07448457545376</v>
+        <v>18.46828397191119</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.748795800816517</v>
+        <v>7.132686402708941</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2.80972797308185</v>
+        <v>1.591688221734458</v>
       </c>
       <c r="E8">
-        <v>10.95620014965819</v>
+        <v>5.656809698276106</v>
       </c>
       <c r="F8">
-        <v>21.395921077485</v>
+        <v>26.10966171707456</v>
       </c>
       <c r="G8">
-        <v>3.571455342767219</v>
+        <v>2.006116965346458</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>16.96970147104308</v>
+        <v>26.11308350537803</v>
       </c>
       <c r="N8">
-        <v>17.46063758714847</v>
+        <v>15.59107290717037</v>
       </c>
       <c r="O8">
-        <v>18.40976177986165</v>
+        <v>20.11167491029525</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.940670946557532</v>
+        <v>7.979110608589883</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>2.79281392146622</v>
+        <v>1.693300663174067</v>
       </c>
       <c r="E9">
-        <v>10.63227967189016</v>
+        <v>5.160136524463125</v>
       </c>
       <c r="F9">
-        <v>22.53503057811182</v>
+        <v>30.55380561272762</v>
       </c>
       <c r="G9">
-        <v>3.564559903170369</v>
+        <v>1.986887156022809</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>18.5948118151233</v>
+        <v>30.11783837799532</v>
       </c>
       <c r="N9">
-        <v>17.65344821424603</v>
+        <v>16.43411423012473</v>
       </c>
       <c r="O9">
-        <v>19.09955375347315</v>
+        <v>23.60032899534478</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.086728820589148</v>
+        <v>8.59685823237851</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>2.781146184999824</v>
+        <v>1.769431817804287</v>
       </c>
       <c r="E10">
-        <v>10.41846437706364</v>
+        <v>4.97750745896996</v>
       </c>
       <c r="F10">
-        <v>23.37171630732966</v>
+        <v>33.57911551396187</v>
       </c>
       <c r="G10">
-        <v>3.559953150715788</v>
+        <v>1.973223972373357</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>19.70884273577429</v>
+        <v>32.78829306765626</v>
       </c>
       <c r="N10">
-        <v>17.80526283336567</v>
+        <v>17.04808894168983</v>
       </c>
       <c r="O10">
-        <v>19.62069452956872</v>
+        <v>25.97132292260167</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.154001092441652</v>
+        <v>8.902271997206006</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>2.77599949369911</v>
+        <v>1.804623222542826</v>
       </c>
       <c r="E11">
-        <v>10.32651768384583</v>
+        <v>4.948771638373915</v>
       </c>
       <c r="F11">
-        <v>23.75026479306381</v>
+        <v>34.9061957621608</v>
       </c>
       <c r="G11">
-        <v>3.55795597539989</v>
+        <v>1.967080373191674</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>20.19641923412876</v>
+        <v>33.94612535668617</v>
       </c>
       <c r="N11">
-        <v>17.87633291535385</v>
+        <v>17.32515135486203</v>
       </c>
       <c r="O11">
-        <v>19.85975282105608</v>
+        <v>27.01092992078943</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.179571329865439</v>
+        <v>9.015448744250085</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>2.774073461159323</v>
+        <v>1.81805386428229</v>
       </c>
       <c r="E12">
-        <v>10.29247201273258</v>
+        <v>4.946931064827811</v>
       </c>
       <c r="F12">
-        <v>23.89315589817426</v>
+        <v>35.40194992986495</v>
       </c>
       <c r="G12">
-        <v>3.557213764828572</v>
+        <v>1.964761595681117</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>20.37816307346961</v>
+        <v>34.37656538683381</v>
       </c>
       <c r="N12">
-        <v>17.90351670524025</v>
+        <v>17.42966515826701</v>
       </c>
       <c r="O12">
-        <v>19.95047042970693</v>
+        <v>27.39925822409709</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.174060440692747</v>
+        <v>8.991183870803594</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>2.774487251793143</v>
+        <v>1.81515626276855</v>
       </c>
       <c r="E13">
-        <v>10.29976986876206</v>
+        <v>4.946906997734929</v>
       </c>
       <c r="F13">
-        <v>23.86240451930424</v>
+        <v>35.29547701414313</v>
       </c>
       <c r="G13">
-        <v>3.557372988404348</v>
+        <v>1.965260690335142</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>20.33915172224139</v>
+        <v>34.28421526551374</v>
       </c>
       <c r="N13">
-        <v>17.89765041917062</v>
+        <v>17.40717542156754</v>
       </c>
       <c r="O13">
-        <v>19.93092573850996</v>
+        <v>27.31585821954464</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.156102988388842</v>
+        <v>8.911632614186002</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>2.775840580142205</v>
+        <v>1.805725923967465</v>
       </c>
       <c r="E14">
-        <v>10.32370119673243</v>
+        <v>4.948432363340024</v>
       </c>
       <c r="F14">
-        <v>23.76203057387517</v>
+        <v>34.9471158871883</v>
       </c>
       <c r="G14">
-        <v>3.557894631644944</v>
+        <v>1.96688946854831</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>20.21143002158113</v>
+        <v>33.98169721473334</v>
       </c>
       <c r="N14">
-        <v>17.87856401195317</v>
+        <v>17.33375830236659</v>
       </c>
       <c r="O14">
-        <v>19.86721291092667</v>
+        <v>27.04298353051118</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.145115292701211</v>
+        <v>8.862583348787004</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>2.776672508818987</v>
+        <v>1.799963953265245</v>
       </c>
       <c r="E15">
-        <v>10.33846067336583</v>
+        <v>4.950578811219081</v>
       </c>
       <c r="F15">
-        <v>23.7004845229105</v>
+        <v>34.73286062359784</v>
       </c>
       <c r="G15">
-        <v>3.558215983927008</v>
+        <v>1.967888057100998</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>20.13281679586349</v>
+        <v>33.79535950525935</v>
       </c>
       <c r="N15">
-        <v>17.86690780764875</v>
+        <v>17.28873331585785</v>
       </c>
       <c r="O15">
-        <v>19.82820912296607</v>
+        <v>26.87515154394242</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.08234709381907</v>
+        <v>8.576550793111627</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>2.781485752362093</v>
+        <v>1.767145185730859</v>
       </c>
       <c r="E16">
-        <v>10.42458098345059</v>
+        <v>4.980585697369115</v>
       </c>
       <c r="F16">
-        <v>23.34692183919134</v>
+        <v>33.49142204973801</v>
       </c>
       <c r="G16">
-        <v>3.560085645058084</v>
+        <v>1.973626695855005</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>19.67658056617493</v>
+        <v>32.7114950025378</v>
       </c>
       <c r="N16">
-        <v>17.8006571472379</v>
+        <v>17.02993005980295</v>
       </c>
       <c r="O16">
-        <v>19.60510339729072</v>
+        <v>25.90261908658966</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.044036517820548</v>
+        <v>8.396641366084449</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>2.784479586079914</v>
+        <v>1.747170924353511</v>
       </c>
       <c r="E17">
-        <v>10.47878058820306</v>
+        <v>5.01380760115157</v>
       </c>
       <c r="F17">
-        <v>23.12937710077227</v>
+        <v>32.71744025096825</v>
       </c>
       <c r="G17">
-        <v>3.561257780964176</v>
+        <v>1.977163762883007</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>19.39167810747271</v>
+        <v>32.03211287825686</v>
       </c>
       <c r="N17">
-        <v>17.76051648344848</v>
+        <v>16.87052887911075</v>
       </c>
       <c r="O17">
-        <v>19.46867672847427</v>
+        <v>25.29619240895477</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.022080804529349</v>
+        <v>8.308257433048935</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>2.786216730651957</v>
+        <v>1.735733197994181</v>
       </c>
       <c r="E18">
-        <v>10.51045491533344</v>
+        <v>5.037958480466576</v>
       </c>
       <c r="F18">
-        <v>23.00406587107371</v>
+        <v>32.26762050058863</v>
       </c>
       <c r="G18">
-        <v>3.561941234882622</v>
+        <v>1.979205128740991</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>19.22600886092406</v>
+        <v>31.63597532436718</v>
       </c>
       <c r="N18">
-        <v>17.7376188039983</v>
+        <v>16.77863935321079</v>
       </c>
       <c r="O18">
-        <v>19.39040045894099</v>
+        <v>24.94370657160855</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.014661356521581</v>
+        <v>8.278834349863185</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>2.786807511077783</v>
+        <v>1.731868663371595</v>
       </c>
       <c r="E19">
-        <v>10.52126497510187</v>
+        <v>5.046963006717884</v>
       </c>
       <c r="F19">
-        <v>22.96161085399122</v>
+        <v>32.11451337376368</v>
       </c>
       <c r="G19">
-        <v>3.562174235675403</v>
+        <v>1.979897568310262</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>19.1696110566508</v>
+        <v>31.50092150833374</v>
       </c>
       <c r="N19">
-        <v>17.72989924114001</v>
+        <v>16.74749434339418</v>
       </c>
       <c r="O19">
-        <v>19.36393347629684</v>
+        <v>24.82372071878908</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.048106686015561</v>
+        <v>8.415962450023484</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>2.784159319101611</v>
+        <v>1.749291785415925</v>
       </c>
       <c r="E20">
-        <v>10.47295913083346</v>
+        <v>5.009740028722796</v>
       </c>
       <c r="F20">
-        <v>23.15255547169192</v>
+        <v>32.8003108449322</v>
       </c>
       <c r="G20">
-        <v>3.561132046041612</v>
+        <v>1.976786536323351</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>19.42219384406066</v>
+        <v>32.10498927382015</v>
       </c>
       <c r="N20">
-        <v>17.76476997169418</v>
+        <v>16.8875193630209</v>
       </c>
       <c r="O20">
-        <v>19.48318032384694</v>
+        <v>25.36112722581282</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.161375118110781</v>
+        <v>8.935065770197793</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>2.775442455042681</v>
+        <v>1.808492796463523</v>
       </c>
       <c r="E21">
-        <v>10.31665095450769</v>
+        <v>4.947729698379761</v>
       </c>
       <c r="F21">
-        <v>23.79152646832162</v>
+        <v>35.04961956461847</v>
       </c>
       <c r="G21">
-        <v>3.557741031003212</v>
+        <v>1.966410871420806</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>20.24902437753957</v>
+        <v>34.07076977338818</v>
       </c>
       <c r="N21">
-        <v>17.88416293827346</v>
+        <v>17.35533426284554</v>
       </c>
       <c r="O21">
-        <v>19.88592246060505</v>
+        <v>27.12327639186364</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.235949498577815</v>
+        <v>9.259904683484276</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>2.769878891899912</v>
+        <v>1.847807047754911</v>
       </c>
       <c r="E22">
-        <v>10.21900154218994</v>
+        <v>4.960369632252503</v>
       </c>
       <c r="F22">
-        <v>24.20639956028034</v>
+        <v>36.48030588516514</v>
       </c>
       <c r="G22">
-        <v>3.555606816823433</v>
+        <v>1.959673026094275</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>20.77250868841132</v>
+        <v>35.30896034482092</v>
       </c>
       <c r="N22">
-        <v>17.96376482283565</v>
+        <v>17.65869247168658</v>
       </c>
       <c r="O22">
-        <v>20.1502112648158</v>
+        <v>28.24391160192449</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.196105469824898</v>
+        <v>9.087843763031632</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>2.772836143948089</v>
+        <v>1.826758210325503</v>
       </c>
       <c r="E23">
-        <v>10.27070377259156</v>
+        <v>4.94838624212978</v>
       </c>
       <c r="F23">
-        <v>23.98527442445974</v>
+        <v>35.72021746550256</v>
       </c>
       <c r="G23">
-        <v>3.556738410130897</v>
+        <v>1.963266142142105</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>20.4946994765034</v>
+        <v>34.65230709874157</v>
       </c>
       <c r="N23">
-        <v>17.9211419411605</v>
+        <v>17.49702792434569</v>
       </c>
       <c r="O23">
-        <v>20.00908778324155</v>
+        <v>27.64855364931199</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.04626634455273</v>
+        <v>8.407232639640512</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>2.784304062085857</v>
+        <v>1.748332803410933</v>
       </c>
       <c r="E24">
-        <v>10.47558941041408</v>
+        <v>5.011563340162688</v>
       </c>
       <c r="F24">
-        <v>23.14207727121254</v>
+        <v>32.76286016866865</v>
       </c>
       <c r="G24">
-        <v>3.561188860960972</v>
+        <v>1.976957055774943</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>19.40840350980891</v>
+        <v>32.07205916154886</v>
       </c>
       <c r="N24">
-        <v>17.76284640850066</v>
+        <v>16.87983873036109</v>
       </c>
       <c r="O24">
-        <v>19.47662275133499</v>
+        <v>25.33178218429972</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.887776272871257</v>
+        <v>7.756966171720389</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>2.797255131504068</v>
+        <v>1.665622016070352</v>
       </c>
       <c r="E25">
-        <v>10.71568813759481</v>
+        <v>5.267261746475755</v>
       </c>
       <c r="F25">
-        <v>22.2261940628728</v>
+        <v>29.39448037275957</v>
       </c>
       <c r="G25">
-        <v>3.566344240549889</v>
+        <v>1.991998669118504</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>18.16850626290467</v>
+        <v>29.08278943408127</v>
       </c>
       <c r="N25">
-        <v>17.59943762190663</v>
+        <v>16.20661139798184</v>
       </c>
       <c r="O25">
-        <v>18.91003769845784</v>
+        <v>22.6911095697706</v>
       </c>
     </row>
   </sheetData>
